--- a/02_pandas/data.xlsx
+++ b/02_pandas/data.xlsx
@@ -42,9 +42,6 @@
     <t>Nazwisko</t>
   </si>
   <si>
-    <t>Data urodzin</t>
-  </si>
-  <si>
     <t>Zarobki</t>
   </si>
   <si>
@@ -178,6 +175,9 @@
   </si>
   <si>
     <t>Premia</t>
+  </si>
+  <si>
+    <t>Data urodzenia</t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1090,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,27 +1110,27 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" t="s">
         <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1">
         <v>28381</v>
@@ -1142,18 +1142,18 @@
         <v>300</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1">
         <v>32743</v>
@@ -1165,18 +1165,18 @@
         <v>500</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1">
         <v>36940</v>
@@ -1188,18 +1188,18 @@
         <v>200</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1">
         <v>36194</v>
@@ -1211,18 +1211,18 @@
         <v>100</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1">
         <v>34426</v>
@@ -1234,18 +1234,18 @@
         <v>200</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1">
         <v>36617</v>
@@ -1257,18 +1257,18 @@
         <v>200</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1">
         <v>36619</v>
@@ -1280,18 +1280,18 @@
         <v>200</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1">
         <v>36080</v>
@@ -1303,18 +1303,18 @@
         <v>200</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1">
         <v>32229</v>
@@ -1326,18 +1326,18 @@
         <v>200</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1">
         <v>32903</v>
@@ -1349,18 +1349,18 @@
         <v>200</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="1">
         <v>34882</v>
@@ -1372,18 +1372,18 @@
         <v>100</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="1">
         <v>35378</v>
@@ -1395,7 +1395,7 @@
         <v>100</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1415,7 +1415,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1">
         <v>1999</v>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2">
         <v>489</v>
@@ -1443,7 +1443,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3">
         <v>2340</v>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4">
         <v>312</v>
